--- a/Symbiosis_Gene_Lit.xlsx
+++ b/Symbiosis_Gene_Lit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/2021-June_Mote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84BB91FA-1F48-45C1-9100-4523C1D56341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{84BB91FA-1F48-45C1-9100-4523C1D56341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD39D6FD-F7DD-439B-A661-B57AD96DA7E3}"/>
   <bookViews>
-    <workbookView xWindow="11148" yWindow="3540" windowWidth="11892" windowHeight="6492" activeTab="1" xr2:uid="{C47A08CD-1ACE-4D7C-86BE-831C4A02FA95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C47A08CD-1ACE-4D7C-86BE-831C4A02FA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="114">
   <si>
     <t>Protein/Gene</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>rapid increase during heat stress</t>
+  </si>
+  <si>
+    <t>Glucose and other sugar transporter</t>
+  </si>
+  <si>
+    <t>Cell signaling</t>
+  </si>
+  <si>
+    <t>Vesicle transport</t>
   </si>
 </sst>
 </file>
@@ -765,7 +774,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1828,7 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1839,7 +1848,7 @@
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1876,7 +1885,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1896,7 +1905,7 @@
         <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1916,7 +1925,7 @@
         <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
